--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT003-003 - Akuntansi - Fixed Income - Cek Jurnal Fixed income BELI SBN HTM Produk  PRI01-Deposito Pasar Uang ORI017.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT003-003 - Akuntansi - Fixed Income - Cek Jurnal Fixed income BELI SBN HTM Produk  PRI01-Deposito Pasar Uang ORI017.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB10BC3-AEC0-4162-AE89-CEED86780A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53031327-DE6C-4E7E-88F1-97A8E740C73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKAKT003" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Setup</t>
   </si>
   <si>
-    <t>Setup Akun Jurnal Standar</t>
-  </si>
-  <si>
     <t>Fixed Income</t>
   </si>
   <si>
@@ -97,40 +94,31 @@
     <t>SEARCH_DOKUMEN_ID</t>
   </si>
   <si>
-    <t>COPY_JURNAL_STANDAR</t>
-  </si>
-  <si>
-    <t>VIEW_NAMA_TRANSAKSI</t>
+    <t>Pengecekan total debit dan kredit harus balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jurnal standar yang digunakan sudah sesuai </t>
   </si>
   <si>
     <t>Cek Jurnal Fixed income BELI SBN HTM Produk : PRI01-Deposito Pasar Uang ORI017</t>
   </si>
   <si>
-    <t>Username : 32382,
+    <t>JM-22-08-02868</t>
+  </si>
+  <si>
+    <t>Username : 48968,
 Password : bni1234,
-Copy Jurnal Standar : INSBNA1001</t>
-  </si>
-  <si>
-    <t>INSBNA1001</t>
+Search Dokumen ID :  JM-22-08-02868</t>
+  </si>
+  <si>
+    <t>Username : 48968,
+Password : bni1234</t>
+  </si>
+  <si>
+    <t>Setup Jurnal Standar</t>
   </si>
   <si>
     <t>DPLKAKT003-003</t>
-  </si>
-  <si>
-    <t>Username : 32382,
-Password : bni1234,
-Search Dokumen ID : JM-22-08-02867</t>
-  </si>
-  <si>
-    <t>Username : 32382,
-Password : bni1234,
-View Nama Transaksi : DTOBL202200409</t>
-  </si>
-  <si>
-    <t>JM-22-08-02867</t>
-  </si>
-  <si>
-    <t>DTOBL202200409</t>
   </si>
 </sst>
 </file>
@@ -539,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,13 +595,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="60">
@@ -621,22 +603,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4">
-        <v>32382</v>
+        <v>48968</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -651,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -667,22 +649,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4">
-        <v>32382</v>
+        <v>48968</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -693,13 +675,13 @@
       <c r="J3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="7"/>
@@ -707,27 +689,27 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:22" ht="60">
+    <row r="4" spans="1:22" ht="45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4">
-        <v>32382</v>
+        <v>48968</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
@@ -736,19 +718,19 @@
         <v>16</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="O4" s="8"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
